--- a/EXCEL/ExcelDataAnalysisFD_Examples/Chapter06.xlsx
+++ b/EXCEL/ExcelDataAnalysisFD_Examples/Chapter06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1777c78eef3b74d/Workbooks/Excel Data Analysis FD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meihua/Documents/MyHomePage/arielmei.github.io/EXCEL/ExcelDataAnalysisFD_Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="335" documentId="8_{DCA8A3C2-8E21-4F79-A42D-2711692370F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{51BC7783-8C98-4064-AF18-10CA5A0B19EC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0B29D7-E5B7-6E4B-8143-7F6B2333CBC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9525" xr2:uid="{938B05CC-7241-4B11-8353-6E6E058B4BEC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28220" windowHeight="15920" activeTab="2" xr2:uid="{938B05CC-7241-4B11-8353-6E6E058B4BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="DGET" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="DCOUNT" sheetId="4" r:id="rId3"/>
     <sheet name="DAVERAGE" sheetId="5" r:id="rId4"/>
     <sheet name="DMAX &amp; DMIN" sheetId="6" r:id="rId5"/>
-    <sheet name="DPRODUCT" sheetId="7" r:id="rId6"/>
-    <sheet name="DSTDEV" sheetId="9" r:id="rId7"/>
-    <sheet name="DVAR" sheetId="10" r:id="rId8"/>
+    <sheet name="DSTDEV" sheetId="9" r:id="rId6"/>
+    <sheet name="DVAR" sheetId="10" r:id="rId7"/>
+    <sheet name="DPRODUCT" sheetId="7" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
@@ -30,7 +30,7 @@
     <definedName name="Criteria2">[1]Defects!$H$3:$H$4</definedName>
     <definedName name="CurrentDate">'[1]Accounts Receivable Data'!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="91">
   <si>
     <t>Product Name</t>
   </si>
@@ -296,6 +296,214 @@
   <si>
     <t>Variance</t>
   </si>
+  <si>
+    <r>
+      <t>DGET(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[database],[field],[criteria]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0432FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DSUM(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[database],[field],[criteria]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0432FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DCOUNT(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[database],[field],[criteria]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0432FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DAVERAGE(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[database],[field],[criteria]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0432FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DMAX/DMIN(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[database],[field],[criteria]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0432FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DSTDEV(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[database],[field],[criteria]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0432FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DVAR(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[database],[field],[criteria]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0432FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DPRODUCT(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[database],[field],[criteria]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0432FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -304,7 +512,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +569,21 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0432FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -496,7 +719,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -565,6 +788,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2618,6 +2842,544 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>159431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC6947D-8129-1D4B-880F-463F498D8C22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9829800" y="1727200"/>
+          <a:ext cx="6096000" cy="2585131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF40FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>retrives</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF40FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> a value from table according to </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF40FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>the criteria. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="285750" indent="-285750">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>database : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>The range of cells that make up the table you want to work with, it </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>includes headers</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="285750" indent="-285750">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>field :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>A reference to the table column on which you want to perform the operation.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="285750" indent="-285750">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>criteria : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Criteria range</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t> including headers.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F264C59-B388-1949-AD63-B8A1A0A35CC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9740900" y="304800"/>
+          <a:ext cx="6096000" cy="471411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF40FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>adds values from table based on </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF40FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>the criteria. </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>217411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B8DADF-1577-6A4B-8609-4F9147990181}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982200" y="508000"/>
+          <a:ext cx="6096000" cy="471411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF40FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>adds values from table based on </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF40FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>the criteria. </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -3089,25 +3851,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170DA6C6-60B9-4F30-A6DC-B1A12BEEB593}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3116,8 +3878,11 @@
         <v>23</v>
       </c>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3127,14 +3892,14 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="20">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
@@ -3157,13 +3922,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="3" customFormat="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3172,7 +3937,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="20">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
@@ -3195,7 +3960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -3219,7 +3984,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3243,7 +4008,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3267,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -3291,7 +4056,7 @@
         <v>240.1875</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3315,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3339,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -3363,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -3387,7 +4152,7 @@
         <v>697.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -3411,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -3435,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -3459,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -3483,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -3507,7 +4272,7 @@
         <v>241.5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -3531,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -3555,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -3579,7 +4344,7 @@
         <v>11212.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -3603,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -3627,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -3651,7 +4416,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -3675,7 +4440,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -3699,7 +4464,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -3723,7 +4488,7 @@
         <v>631.5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -3747,7 +4512,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -3771,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -3795,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -3819,7 +4584,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -3843,7 +4608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -3867,7 +4632,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -3891,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -3915,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -3939,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -3963,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -3987,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
@@ -4011,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -4035,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -4059,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -4083,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -4107,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -4131,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -4155,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -4179,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -4203,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
@@ -4227,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -4251,7 +5016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -4277,33 +5042,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FC33E3-B883-49BB-B792-6AD5AD2DD714}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -4312,15 +5078,18 @@
         <v>12041.5</v>
       </c>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="20">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4343,14 +5112,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -4359,7 +5128,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="20">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
@@ -4382,7 +5151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
@@ -4406,7 +5175,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -4430,7 +5199,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -4454,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -4478,7 +5247,7 @@
         <v>240.1875</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -4502,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -4526,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -4550,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -4574,7 +5343,7 @@
         <v>697.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -4598,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -4622,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -4646,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -4670,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -4694,7 +5463,7 @@
         <v>241.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -4718,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -4742,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -4766,7 +5535,7 @@
         <v>11212.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -4790,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -4814,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -4838,7 +5607,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -4862,7 +5631,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -4886,7 +5655,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -4910,7 +5679,7 @@
         <v>631.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -4934,7 +5703,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -4958,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -4982,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -5006,7 +5775,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -5030,7 +5799,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -5054,7 +5823,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -5078,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -5102,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -5126,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
@@ -5150,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -5174,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -5198,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -5222,7 +5991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
@@ -5246,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -5270,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
@@ -5294,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -5318,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
@@ -5342,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -5366,7 +6135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
@@ -5390,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -5414,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -5438,7 +6207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -5464,33 +6233,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234B6D20-850C-4CD9-BB69-7F6911EB4548}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="2" t="s">
         <v>65</v>
       </c>
@@ -5499,15 +6269,18 @@
         <v>25</v>
       </c>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="20">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -5530,14 +6303,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="3"/>
       <c r="D4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -5546,7 +6319,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="20">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
@@ -5569,7 +6342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
@@ -5593,7 +6366,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -5617,7 +6390,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -5641,7 +6414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -5665,7 +6438,7 @@
         <v>240.1875</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -5689,7 +6462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -5713,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -5737,7 +6510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -5761,7 +6534,7 @@
         <v>697.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -5785,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -5809,7 +6582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -5833,7 +6606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -5857,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -5881,7 +6654,7 @@
         <v>241.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -5905,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -5929,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -5953,7 +6726,7 @@
         <v>11212.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -5977,7 +6750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -6001,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -6025,7 +6798,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -6049,7 +6822,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -6073,7 +6846,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -6097,7 +6870,7 @@
         <v>631.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -6121,7 +6894,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -6145,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -6169,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -6193,7 +6966,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -6217,7 +6990,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -6241,7 +7014,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -6265,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -6289,7 +7062,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -6313,7 +7086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
@@ -6337,7 +7110,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -6361,7 +7134,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -6385,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -6409,7 +7182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
@@ -6433,7 +7206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -6457,7 +7230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
@@ -6481,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -6505,7 +7278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
@@ -6529,7 +7302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -6553,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
@@ -6577,7 +7350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -6601,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -6625,7 +7398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -6651,33 +7424,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F9FB06-E193-42C4-A99D-30296929B868}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
@@ -6686,15 +7460,18 @@
         <v>11.055147058823529</v>
       </c>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="20">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -6717,21 +7494,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="3" customFormat="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6740,7 +7517,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="20">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
@@ -6763,7 +7540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -6787,7 +7564,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -6811,7 +7588,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -6835,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -6859,7 +7636,7 @@
         <v>240.1875</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -6883,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -6907,7 +7684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -6931,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -6955,7 +7732,7 @@
         <v>697.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -6979,7 +7756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -7003,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -7027,7 +7804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -7051,7 +7828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -7075,7 +7852,7 @@
         <v>241.5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -7099,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -7123,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -7147,7 +7924,7 @@
         <v>11212.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -7171,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -7195,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -7219,7 +7996,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -7243,7 +8020,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -7267,7 +8044,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -7291,7 +8068,7 @@
         <v>631.5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -7315,7 +8092,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -7339,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -7363,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -7387,7 +8164,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -7411,7 +8188,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -7435,7 +8212,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -7459,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -7483,7 +8260,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -7507,7 +8284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -7531,7 +8308,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -7555,7 +8332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
@@ -7579,7 +8356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -7603,7 +8380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -7627,7 +8404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -7651,7 +8428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -7675,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -7699,7 +8476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -7723,7 +8500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -7747,7 +8524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -7771,7 +8548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
@@ -7795,7 +8572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -7819,7 +8596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -7853,25 +8630,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BD038E-32B3-452A-8AD4-C2BC545B6EAA}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -7880,8 +8657,11 @@
         <v>697.5</v>
       </c>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -7891,14 +8671,14 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="20">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
@@ -7921,7 +8701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>17</v>
@@ -7931,7 +8711,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="3" customFormat="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -7940,7 +8720,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="20">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
@@ -7963,7 +8743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -7987,7 +8767,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -8011,7 +8791,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -8035,7 +8815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -8059,7 +8839,7 @@
         <v>240.1875</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -8083,7 +8863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -8107,7 +8887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -8131,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -8155,7 +8935,7 @@
         <v>697.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -8179,7 +8959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -8203,7 +8983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -8227,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -8251,7 +9031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -8275,7 +9055,7 @@
         <v>241.5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -8299,7 +9079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -8323,7 +9103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -8347,7 +9127,7 @@
         <v>11212.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -8371,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -8395,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -8419,7 +9199,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -8443,7 +9223,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -8467,7 +9247,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -8491,7 +9271,7 @@
         <v>631.5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -8515,7 +9295,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -8539,7 +9319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -8563,7 +9343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -8587,7 +9367,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -8611,7 +9391,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -8635,7 +9415,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -8659,7 +9439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -8683,7 +9463,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -8707,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -8731,7 +9511,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -8755,7 +9535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
@@ -8779,7 +9559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -8803,7 +9583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -8827,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -8851,7 +9631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -8875,7 +9655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -8899,7 +9679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -8923,7 +9703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -8947,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -8971,7 +9751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
@@ -8995,7 +9775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -9019,7 +9799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -9052,127 +9832,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE854D11-FE72-46C0-9A78-6DDEFB94953C}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C80108D-A50B-4E91-A671-37FCC65663E0}">
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="31" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="25">
-        <f>DPRODUCT(A6:B11, 2, A2:A4)</f>
-        <v>8.1900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="26"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="29">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="25">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="29">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="29">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="29">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="29">
-        <v>0.02</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C80108D-A50B-4E91-A671-37FCC65663E0}">
-  <dimension ref="A1:G51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="2" t="s">
         <v>80</v>
       </c>
@@ -9181,15 +9860,18 @@
         <v>213.76910550580035</v>
       </c>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="20">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -9212,7 +9894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -9222,7 +9904,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -9231,7 +9913,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="20">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
@@ -9254,7 +9936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
@@ -9278,7 +9960,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -9302,7 +9984,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -9326,7 +10008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -9350,7 +10032,7 @@
         <v>240.1875</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -9374,7 +10056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -9398,7 +10080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -9422,7 +10104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -9446,7 +10128,7 @@
         <v>697.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -9470,7 +10152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -9494,7 +10176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -9518,7 +10200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -9542,7 +10224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -9566,7 +10248,7 @@
         <v>241.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -9590,7 +10272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -9614,7 +10296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -9638,7 +10320,7 @@
         <v>11212.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -9662,7 +10344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -9686,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -9710,7 +10392,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -9734,7 +10416,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -9758,7 +10440,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -9782,7 +10464,7 @@
         <v>631.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -9806,7 +10488,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -9830,7 +10512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -9854,7 +10536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -9878,7 +10560,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -9902,7 +10584,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -9926,7 +10608,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -9950,7 +10632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -9974,7 +10656,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -9998,7 +10680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
@@ -10022,7 +10704,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -10046,7 +10728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -10070,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -10094,7 +10776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
@@ -10118,7 +10800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -10142,7 +10824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
@@ -10166,7 +10848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -10190,7 +10872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
@@ -10214,7 +10896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -10238,7 +10920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
@@ -10262,7 +10944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -10286,7 +10968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -10310,7 +10992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -10331,6 +11013,1196 @@
       </c>
       <c r="G51" s="8">
         <f>Inventory6[[#This Row],[On Hand]] * Inventory6[[#This Row],[Unit Cost]]</f>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6391F664-3BD0-4BD0-BB18-814269F0EA1B}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="31" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21">
+      <c r="A1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="24">
+        <f>DVAR(Inventory7[#All], "Unit Cost", A3:G4)</f>
+        <v>26.835220424107149</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="H1" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:8" ht="20">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="20">
+      <c r="A6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>25</v>
+      </c>
+      <c r="E7" s="12">
+        <v>13.5</v>
+      </c>
+      <c r="F7" s="12">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>337.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5">
+        <v>16.012499999999999</v>
+      </c>
+      <c r="F10" s="5">
+        <v>21.35</v>
+      </c>
+      <c r="G10" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>240.1875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>18.75</v>
+      </c>
+      <c r="F11" s="5">
+        <v>25</v>
+      </c>
+      <c r="G11" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>22.5</v>
+      </c>
+      <c r="F12" s="5">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>30</v>
+      </c>
+      <c r="F13" s="5">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>40</v>
+      </c>
+      <c r="E14" s="5">
+        <v>17.4375</v>
+      </c>
+      <c r="F14" s="5">
+        <v>23.25</v>
+      </c>
+      <c r="G14" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>697.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>29.25</v>
+      </c>
+      <c r="F15" s="5">
+        <v>39</v>
+      </c>
+      <c r="G15" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>6.9</v>
+      </c>
+      <c r="F16" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G16" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>60.75</v>
+      </c>
+      <c r="F17" s="5">
+        <v>81</v>
+      </c>
+      <c r="G17" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="F18" s="5">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1">
+        <v>23</v>
+      </c>
+      <c r="E19" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="F19" s="5">
+        <v>14</v>
+      </c>
+      <c r="G19" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>241.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>13.8</v>
+      </c>
+      <c r="F20" s="5">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G20" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>7.2374999999999998</v>
+      </c>
+      <c r="F21" s="5">
+        <v>9.65</v>
+      </c>
+      <c r="G21" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4">
+        <v>325</v>
+      </c>
+      <c r="D22" s="1">
+        <v>325</v>
+      </c>
+      <c r="E22" s="5">
+        <v>34.5</v>
+      </c>
+      <c r="F22" s="5">
+        <v>46</v>
+      </c>
+      <c r="G22" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>11212.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>9.5625</v>
+      </c>
+      <c r="F23" s="5">
+        <v>12.75</v>
+      </c>
+      <c r="G23" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>39.75</v>
+      </c>
+      <c r="F24" s="5">
+        <v>53</v>
+      </c>
+      <c r="G24" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>60</v>
+      </c>
+      <c r="E25" s="5">
+        <v>5.25</v>
+      </c>
+      <c r="F25" s="5">
+        <v>7</v>
+      </c>
+      <c r="G25" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="4">
+        <v>110</v>
+      </c>
+      <c r="D26" s="1">
+        <v>120</v>
+      </c>
+      <c r="E26" s="5">
+        <v>28.5</v>
+      </c>
+      <c r="F26" s="5">
+        <v>38</v>
+      </c>
+      <c r="G26" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>80</v>
+      </c>
+      <c r="E27" s="5">
+        <v>14.625</v>
+      </c>
+      <c r="F27" s="5">
+        <v>19.5</v>
+      </c>
+      <c r="G27" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>40</v>
+      </c>
+      <c r="E28" s="5">
+        <v>15.7875</v>
+      </c>
+      <c r="F28" s="5">
+        <v>21.05</v>
+      </c>
+      <c r="G28" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>631.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>80</v>
+      </c>
+      <c r="E29" s="5">
+        <v>12.75</v>
+      </c>
+      <c r="F29" s="5">
+        <v>17</v>
+      </c>
+      <c r="G29" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>26.1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G30" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="F31" s="5">
+        <v>10</v>
+      </c>
+      <c r="G31" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>60</v>
+      </c>
+      <c r="E32" s="5">
+        <v>9.75</v>
+      </c>
+      <c r="F32" s="5">
+        <v>13</v>
+      </c>
+      <c r="G32" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="4">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1">
+        <v>20</v>
+      </c>
+      <c r="E33" s="5">
+        <v>3</v>
+      </c>
+      <c r="F33" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="G33" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="4">
+        <v>75</v>
+      </c>
+      <c r="D34" s="1">
+        <v>125</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2</v>
+      </c>
+      <c r="F34" s="5">
+        <v>2.99</v>
+      </c>
+      <c r="G34" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2</v>
+      </c>
+      <c r="F35" s="5">
+        <v>4</v>
+      </c>
+      <c r="G35" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>25</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="G36" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>9</v>
+      </c>
+      <c r="F37" s="5">
+        <v>12.49</v>
+      </c>
+      <c r="G37" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>10</v>
+      </c>
+      <c r="E38" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="F38" s="5">
+        <v>15.99</v>
+      </c>
+      <c r="G38" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>50</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2</v>
+      </c>
+      <c r="F39" s="5">
+        <v>4</v>
+      </c>
+      <c r="G39" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="G40" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>8</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G41" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="G42" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <v>2</v>
+      </c>
+      <c r="G43" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="G44" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="G45" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>15</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G46" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F47" s="5">
+        <v>2</v>
+      </c>
+      <c r="G47" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="5">
+        <v>2</v>
+      </c>
+      <c r="F48" s="5">
+        <v>4</v>
+      </c>
+      <c r="G48" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>3</v>
+      </c>
+      <c r="F49" s="5">
+        <v>5</v>
+      </c>
+      <c r="G49" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>25</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1.89</v>
+      </c>
+      <c r="G50" s="7">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>30</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="G51" s="8">
+        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
         <v>30</v>
       </c>
     </row>
@@ -10343,1188 +12215,105 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6391F664-3BD0-4BD0-BB18-814269F0EA1B}">
-  <dimension ref="A1:G51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE854D11-FE72-46C0-9A78-6DDEFB94953C}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="33.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="24">
-        <f>DVAR(Inventory7[#All], "Unit Cost", A3:G4)</f>
-        <v>26.835220424107149</v>
-      </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1">
-        <v>25</v>
-      </c>
-      <c r="E7" s="12">
-        <v>13.5</v>
-      </c>
-      <c r="F7" s="12">
-        <v>18</v>
-      </c>
-      <c r="G7" s="6">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>337.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>50</v>
-      </c>
-      <c r="E8" s="5">
-        <v>7.5</v>
-      </c>
-      <c r="F8" s="5">
-        <v>10</v>
-      </c>
-      <c r="G8" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="F9" s="5">
-        <v>22</v>
-      </c>
-      <c r="G9" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>15</v>
-      </c>
-      <c r="E10" s="5">
-        <v>16.012499999999999</v>
-      </c>
-      <c r="F10" s="5">
-        <v>21.35</v>
-      </c>
-      <c r="G10" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>240.1875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>18.75</v>
-      </c>
-      <c r="F11" s="5">
-        <v>25</v>
-      </c>
-      <c r="G11" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>22.5</v>
-      </c>
-      <c r="F12" s="5">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>30</v>
-      </c>
-      <c r="F13" s="5">
-        <v>40</v>
-      </c>
-      <c r="G13" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>40</v>
-      </c>
-      <c r="E14" s="5">
-        <v>17.4375</v>
-      </c>
-      <c r="F14" s="5">
-        <v>23.25</v>
-      </c>
-      <c r="G14" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>697.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>29.25</v>
-      </c>
-      <c r="F15" s="5">
-        <v>39</v>
-      </c>
-      <c r="G15" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>6.9</v>
-      </c>
-      <c r="F16" s="5">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G16" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>60.75</v>
-      </c>
-      <c r="F17" s="5">
-        <v>81</v>
-      </c>
-      <c r="G17" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>7.5</v>
-      </c>
-      <c r="F18" s="5">
-        <v>10</v>
-      </c>
-      <c r="G18" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4">
-        <v>23</v>
-      </c>
-      <c r="D19" s="1">
-        <v>23</v>
-      </c>
-      <c r="E19" s="5">
-        <v>10.5</v>
-      </c>
-      <c r="F19" s="5">
-        <v>14</v>
-      </c>
-      <c r="G19" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>241.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>13.8</v>
-      </c>
-      <c r="F20" s="5">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="G20" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
-        <v>7.2374999999999998</v>
-      </c>
-      <c r="F21" s="5">
-        <v>9.65</v>
-      </c>
-      <c r="G21" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="4">
-        <v>325</v>
-      </c>
-      <c r="D22" s="1">
-        <v>325</v>
-      </c>
-      <c r="E22" s="5">
-        <v>34.5</v>
-      </c>
-      <c r="F22" s="5">
-        <v>46</v>
-      </c>
-      <c r="G22" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>11212.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
-        <v>9.5625</v>
-      </c>
-      <c r="F23" s="5">
-        <v>12.75</v>
-      </c>
-      <c r="G23" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5">
-        <v>39.75</v>
-      </c>
-      <c r="F24" s="5">
-        <v>53</v>
-      </c>
-      <c r="G24" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>60</v>
-      </c>
-      <c r="E25" s="5">
-        <v>5.25</v>
-      </c>
-      <c r="F25" s="5">
-        <v>7</v>
-      </c>
-      <c r="G25" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="4">
-        <v>110</v>
-      </c>
-      <c r="D26" s="1">
-        <v>120</v>
-      </c>
-      <c r="E26" s="5">
-        <v>28.5</v>
-      </c>
-      <c r="F26" s="5">
-        <v>38</v>
-      </c>
-      <c r="G26" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>3420</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>80</v>
-      </c>
-      <c r="E27" s="5">
-        <v>14.625</v>
-      </c>
-      <c r="F27" s="5">
-        <v>19.5</v>
-      </c>
-      <c r="G27" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>40</v>
-      </c>
-      <c r="E28" s="5">
-        <v>15.7875</v>
-      </c>
-      <c r="F28" s="5">
-        <v>21.05</v>
-      </c>
-      <c r="G28" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>631.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>80</v>
-      </c>
-      <c r="E29" s="5">
-        <v>12.75</v>
-      </c>
-      <c r="F29" s="5">
-        <v>17</v>
-      </c>
-      <c r="G29" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
-        <v>26.1</v>
-      </c>
-      <c r="F30" s="5">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="G30" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <v>7.5</v>
-      </c>
-      <c r="F31" s="5">
-        <v>10</v>
-      </c>
-      <c r="G31" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>60</v>
-      </c>
-      <c r="E32" s="5">
-        <v>9.75</v>
-      </c>
-      <c r="F32" s="5">
-        <v>13</v>
-      </c>
-      <c r="G32" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>585</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="4">
-        <v>20</v>
-      </c>
-      <c r="D33" s="1">
-        <v>20</v>
-      </c>
-      <c r="E33" s="5">
-        <v>3</v>
-      </c>
-      <c r="F33" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G33" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="4">
+    <row r="1" spans="1:4" ht="21">
+      <c r="A1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="25">
+        <f>DPRODUCT(A6:B11, 2, A2:A4)</f>
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="26"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="29">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="25">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="1">
-        <v>125</v>
-      </c>
-      <c r="E34" s="5">
-        <v>2</v>
-      </c>
-      <c r="F34" s="5">
-        <v>2.99</v>
-      </c>
-      <c r="G34" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5">
-        <v>2</v>
-      </c>
-      <c r="F35" s="5">
-        <v>4</v>
-      </c>
-      <c r="G35" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
-        <v>25</v>
-      </c>
-      <c r="E36" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F36" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="G36" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="5">
-        <v>9</v>
-      </c>
-      <c r="F37" s="5">
-        <v>12.49</v>
-      </c>
-      <c r="G37" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>10</v>
-      </c>
-      <c r="E38" s="5">
-        <v>10.5</v>
-      </c>
-      <c r="F38" s="5">
-        <v>15.99</v>
-      </c>
-      <c r="G38" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>50</v>
-      </c>
-      <c r="E39" s="5">
-        <v>2</v>
-      </c>
-      <c r="F39" s="5">
-        <v>4</v>
-      </c>
-      <c r="G39" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="5">
-        <v>1</v>
-      </c>
-      <c r="F40" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="G40" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
-        <v>8</v>
-      </c>
-      <c r="E41" s="5">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="G41" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="5">
-        <v>1</v>
-      </c>
-      <c r="F42" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="G42" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1">
-        <v>5</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5">
-        <v>2</v>
-      </c>
-      <c r="G43" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="E44" s="5">
-        <v>1</v>
-      </c>
-      <c r="F44" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="G44" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1">
-        <v>5</v>
-      </c>
-      <c r="E45" s="5">
-        <v>1</v>
-      </c>
-      <c r="F45" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="G45" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1">
-        <v>15</v>
-      </c>
-      <c r="E46" s="5">
-        <v>1</v>
-      </c>
-      <c r="F46" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="G46" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F47" s="5">
-        <v>2</v>
-      </c>
-      <c r="G47" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
-        <v>3</v>
-      </c>
-      <c r="E48" s="5">
-        <v>2</v>
-      </c>
-      <c r="F48" s="5">
-        <v>4</v>
-      </c>
-      <c r="G48" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0</v>
-      </c>
-      <c r="E49" s="5">
-        <v>3</v>
-      </c>
-      <c r="F49" s="5">
-        <v>5</v>
-      </c>
-      <c r="G49" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1">
-        <v>25</v>
-      </c>
-      <c r="E50" s="5">
-        <v>1</v>
-      </c>
-      <c r="F50" s="5">
-        <v>1.89</v>
-      </c>
-      <c r="G50" s="7">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1">
-        <v>30</v>
-      </c>
-      <c r="E51" s="5">
-        <v>1</v>
-      </c>
-      <c r="F51" s="5">
-        <v>1.95</v>
-      </c>
-      <c r="G51" s="8">
-        <f>Inventory7[[#This Row],[On Hand]] * Inventory7[[#This Row],[Unit Cost]]</f>
-        <v>30</v>
+      <c r="B9" s="29">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="29">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="29">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="29">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/EXCEL/ExcelDataAnalysisFD_Examples/Chapter06.xlsx
+++ b/EXCEL/ExcelDataAnalysisFD_Examples/Chapter06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meihua/Documents/MyHomePage/arielmei.github.io/EXCEL/ExcelDataAnalysisFD_Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0B29D7-E5B7-6E4B-8143-7F6B2333CBC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C46250-1330-F04B-991A-372D59123049}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28220" windowHeight="15920" activeTab="2" xr2:uid="{938B05CC-7241-4B11-8353-6E6E058B4BEC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28220" windowHeight="15920" xr2:uid="{938B05CC-7241-4B11-8353-6E6E058B4BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="DGET" sheetId="1" r:id="rId1"/>
@@ -2831,6 +2831,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0432FF"/>
+      <color rgb="FFFF40FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2848,14 +2854,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>159431</xdr:rowOff>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>172131</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2870,8 +2876,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9829800" y="1727200"/>
-          <a:ext cx="6096000" cy="2585131"/>
+          <a:off x="9829800" y="533400"/>
+          <a:ext cx="6591300" cy="2585131"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2970,10 +2976,18 @@
           <a:r>
             <a:rPr lang="en-US" b="1">
               <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dget</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
                 <a:srgbClr val="FF40FF"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>retrives</a:t>
+            <a:t> function retrives</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" b="1" baseline="0">
@@ -3013,7 +3027,11 @@
             <a:t>The range of cells that make up the table you want to work with, it </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" b="1"/>
+            <a:rPr lang="en-US" b="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="0432FF"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>includes headers</a:t>
           </a:r>
           <a:r>
@@ -3047,7 +3065,19 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US"/>
-            <a:t>A reference to the table column on which you want to perform the operation.</a:t>
+            <a:t>A </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="0432FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>reference to the table column </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>on which you want to perform the operation.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3072,7 +3102,19 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" b="1"/>
-            <a:t> including headers.</a:t>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="0432FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>including headers</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3086,16 +3128,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>14211</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1511</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3110,7 +3152,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9740900" y="304800"/>
+          <a:off x="9994900" y="533400"/>
           <a:ext cx="6096000" cy="471411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3210,10 +3252,18 @@
           <a:r>
             <a:rPr lang="en-US" b="1" baseline="0">
               <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DSUM </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:solidFill>
                 <a:srgbClr val="FF40FF"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>adds values from table based on </a:t>
+            <a:t>function adds values from table based on </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" b="1">
@@ -3243,8 +3293,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>217411</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>157556</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3260,7 +3310,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9982200" y="508000"/>
-          <a:ext cx="6096000" cy="471411"/>
+          <a:ext cx="6096000" cy="894156"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3359,10 +3409,203 @@
           <a:r>
             <a:rPr lang="en-US" b="1" baseline="0">
               <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dcount</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:solidFill>
                 <a:srgbClr val="FF40FF"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>adds values from table based on </a:t>
+            <a:t> counts the numeric values in field</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF40FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DcountA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF40FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> counts all the nonblank items in field</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF40FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>217411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2790F3BF-9318-AD4A-B91E-D727F9FF4E02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982200" y="508000"/>
+          <a:ext cx="6858000" cy="471411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Daverage</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF40FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> function calculates average from table based on </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" b="1">
@@ -3370,8 +3613,633 @@
                 <a:srgbClr val="FF40FF"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>the criteria. </a:t>
+            <a:t>the criteria</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>157556</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88ADAC31-7D2E-ED47-831A-C94DCC040E02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982200" y="508000"/>
+          <a:ext cx="7467600" cy="894156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dmax/Dmin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF40FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> function returns the maxmum/minimum value from table based on </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF40FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>the criteria</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>157556</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59602CAF-CB80-D847-8260-20E6A70BE8D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982200" y="508000"/>
+          <a:ext cx="6477000" cy="894156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dstdev</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF40FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> function calculates the standard deviation from table based on </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF40FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>the criteria</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>68656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{385CB171-4A2E-E545-929B-D7D1F149128F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10007600" y="419100"/>
+          <a:ext cx="6477000" cy="894156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dvar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF40FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> function calculates the variance from table based on </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF40FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>the criteria</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>170256</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F32C692C-15A2-104F-B364-F065CB4D47F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="508000"/>
+          <a:ext cx="6477000" cy="894156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dproduct</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF40FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> function returns the product of the numbers in a column in database based on the given criteria.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF40FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3851,9 +4719,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170DA6C6-60B9-4F30-A6DC-B1A12BEEB593}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -3869,7 +4737,7 @@
     <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3878,11 +4746,11 @@
         <v>23</v>
       </c>
       <c r="F1" s="2"/>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3892,14 +4760,14 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:8" ht="20">
+    <row r="4" spans="1:9" ht="20">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
@@ -3922,13 +4790,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1">
+    <row r="6" spans="1:9" s="3" customFormat="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3937,7 +4805,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="20">
+    <row r="7" spans="1:9" ht="20">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
@@ -3960,7 +4828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -3984,7 +4852,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -4008,7 +4876,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4032,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -4056,7 +4924,7 @@
         <v>240.1875</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -4080,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -4104,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -4128,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -4152,7 +5020,7 @@
         <v>697.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -5051,10 +5919,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FC33E3-B883-49BB-B792-6AD5AD2DD714}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -5069,7 +5937,7 @@
     <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -5078,18 +5946,18 @@
         <v>12041.5</v>
       </c>
       <c r="F1" s="2"/>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:8" ht="20">
+    <row r="3" spans="1:9" ht="20">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -5112,14 +5980,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1">
+    <row r="5" spans="1:9" s="3" customFormat="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -5128,7 +5996,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="20">
+    <row r="6" spans="1:9" ht="20">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
@@ -5151,7 +6019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
@@ -5175,7 +6043,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -5199,7 +6067,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -5223,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -5247,7 +6115,7 @@
         <v>240.1875</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -5271,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -5295,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -5319,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -5343,7 +6211,7 @@
         <v>697.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -5367,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -6242,10 +7110,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234B6D20-850C-4CD9-BB69-7F6911EB4548}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -6260,7 +7128,7 @@
     <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2" t="s">
         <v>65</v>
       </c>
@@ -6269,18 +7137,18 @@
         <v>25</v>
       </c>
       <c r="F1" s="2"/>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:8" ht="20">
+    <row r="3" spans="1:9" ht="20">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -6303,14 +7171,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="D4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1">
+    <row r="5" spans="1:9" s="3" customFormat="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6319,7 +7187,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="20">
+    <row r="6" spans="1:9" ht="20">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
@@ -6342,7 +7210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
@@ -6366,7 +7234,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -6390,7 +7258,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -6414,7 +7282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -6438,7 +7306,7 @@
         <v>240.1875</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -6462,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -6486,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -6510,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6534,7 +7402,7 @@
         <v>697.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -6558,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -7433,10 +8301,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F9FB06-E193-42C4-A99D-30296929B868}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -7451,7 +8319,7 @@
     <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
@@ -7460,18 +8328,18 @@
         <v>11.055147058823529</v>
       </c>
       <c r="F1" s="2"/>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:8" ht="20">
+    <row r="3" spans="1:9" ht="20">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -7494,21 +8362,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1">
+    <row r="6" spans="1:9" s="3" customFormat="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -7517,7 +8385,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="20">
+    <row r="7" spans="1:9" ht="20">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
@@ -7540,7 +8408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -7564,7 +8432,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -7588,7 +8456,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -7612,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -7636,7 +8504,7 @@
         <v>240.1875</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -7660,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -7684,7 +8552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -7708,7 +8576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -7732,7 +8600,7 @@
         <v>697.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -8622,18 +9490,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BD038E-32B3-452A-8AD4-C2BC545B6EAA}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -8648,7 +9517,7 @@
     <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -8657,11 +9526,11 @@
         <v>697.5</v>
       </c>
       <c r="F1" s="2"/>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -8671,14 +9540,14 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:8" ht="20">
+    <row r="4" spans="1:9" ht="20">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
@@ -8701,7 +9570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>17</v>
@@ -8711,7 +9580,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1">
+    <row r="6" spans="1:9" s="3" customFormat="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -8720,7 +9589,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="20">
+    <row r="7" spans="1:9" ht="20">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
@@ -8743,7 +9612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -8767,7 +9636,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -8791,7 +9660,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -8815,7 +9684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -8839,7 +9708,7 @@
         <v>240.1875</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -8863,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -8887,7 +9756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -8911,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -8935,7 +9804,7 @@
         <v>697.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -9825,18 +10694,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C80108D-A50B-4E91-A671-37FCC65663E0}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -9851,7 +10721,7 @@
     <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2" t="s">
         <v>80</v>
       </c>
@@ -9860,18 +10730,18 @@
         <v>213.76910550580035</v>
       </c>
       <c r="F1" s="2"/>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:8" ht="20">
+    <row r="3" spans="1:9" ht="20">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -9894,7 +10764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -9904,7 +10774,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1">
+    <row r="5" spans="1:9" s="3" customFormat="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -9913,7 +10783,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="20">
+    <row r="6" spans="1:9" ht="20">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
@@ -9936,7 +10806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
@@ -9960,7 +10830,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -9984,7 +10854,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -10008,7 +10878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -10032,7 +10902,7 @@
         <v>240.1875</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -10056,7 +10926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -10080,7 +10950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -10104,7 +10974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -10128,7 +10998,7 @@
         <v>697.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -10152,7 +11022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -11018,18 +11888,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6391F664-3BD0-4BD0-BB18-814269F0EA1B}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -11044,7 +11915,7 @@
     <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
@@ -11053,18 +11924,18 @@
         <v>26.835220424107149</v>
       </c>
       <c r="F1" s="2"/>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:8" ht="20">
+    <row r="3" spans="1:9" ht="20">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -11087,14 +11958,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1">
+    <row r="5" spans="1:9" s="3" customFormat="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -11103,7 +11974,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="20">
+    <row r="6" spans="1:9" ht="20">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
@@ -11126,7 +11997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
@@ -11150,7 +12021,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -11174,7 +12045,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -11198,7 +12069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -11222,7 +12093,7 @@
         <v>240.1875</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -11246,7 +12117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -11270,7 +12141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -11294,7 +12165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -11318,7 +12189,7 @@
         <v>697.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -11342,7 +12213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -12208,8 +13079,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -12219,7 +13091,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19"/>
@@ -12315,5 +13187,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>